--- a/Income/WEC_inc.xlsx
+++ b/Income/WEC_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>7824400000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>7242000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>7257000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>7214000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>7255200000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>7523600000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>7652400000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>7688100000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>7770400000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>7679500000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>7657700000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>7671500000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>7630500000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>7648500000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>7556500000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>7611500000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>7582000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>7472300000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>7357600000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>7343800000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>6733000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>5926100000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>5302900000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>4637500000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>4690000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>4997100000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>4950300000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>4970200000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>4938800000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>4519000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>4411900000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>4398000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>4330400000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>4246400000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>4288400000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>4301900000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>4348900000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>4486400000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>4463000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>4383400000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>4533600000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>4674000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>5290000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>4558300000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>3906200000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>3509800000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>2839799900.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>2879599900.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>2935399900.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>2897899900.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>2841100100.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>2859700100.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>2853800100.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>2822800100.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>2771099900.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>2783099900.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>2749599900.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>2647399900.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>2584500100.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>2620400100.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>2465100100.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>2240100100.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2080999900.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>1897799900.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>1963199900.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>2259399900.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>2229899900.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>2223199900.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>2196099900.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1827099900.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1760599900.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1751799900.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1694199900.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>1644399900.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>1677400000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1705600000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1779700000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>1898400000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1898900000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>1881800000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>3291800000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>2568000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>1966000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>2654700000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>3348000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>4013800000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>4812600000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>4808500000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>4835000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>4781600000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>4816600000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>4811800000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>4776700000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>4825700000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>4785400000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>4828400000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>4832400000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>4824900000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>4773100000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>4723400000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>4267900000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>3686000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>3221900200.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>2739700200.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>2726800100.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>2737700100.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>2720400100.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>2747000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>2742700100.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>2691900100.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>2651300000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>2646200100.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>2636200100.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>2602000100.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>2611000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>2596300100.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>2569200100.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>2588000100.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>2564100000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>2501599900.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>2267100000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>2240200000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>2239300100.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>2265300100.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>2296200100.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>2386600100.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>2446699900.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>2471799900.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>2505299900.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>2467399900.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>2397800200.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>2315100200.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>2257600200.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>2251000200.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>2253800100.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>2299600100.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>2341400100.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>2366000100.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>2323800000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>2342500000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>2139800000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>1873700000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>1629300000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>1323400000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>1240800000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>1234200000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>1234000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>1251600000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>1260100000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>1271700000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>1257800000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>1235200000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>1238500000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>1237500000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>1265400000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>1316200000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>1345300000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>1370500000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>1377500000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>1396700000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>1708799900.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>1706100200.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>1698701000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>1639400900.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>1615201000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1531400800.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>1458100000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1449900100.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>1466100100.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>1468400200.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>1585599100.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>1675099100.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>1706499200.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>1776099300.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>1744999400.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>1751799500.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>1721699400.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>1696299300.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>1700600300.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>1647300200.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>1481000200.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>1250500200.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>1113800200.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>1014200300.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>1089100200.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>1112100200.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>1140199900.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>1152099700.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>1140899800.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>1080099800.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>1009899900.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>1032500000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>1025600000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>1000300000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>991900000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>935600000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>887400100.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>887300100.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>909999800.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>888699800.0</v>
       </c>
     </row>
@@ -865,17 +884,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>492000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>501000000.0</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1052,6 +1071,11 @@
         </is>
       </c>
       <c r="AN7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO7" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1064,120 +1088,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>38900000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>65000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>-53300000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>-127900000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>-167300000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>-257400000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>-244300000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>-229100000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>-238100000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>-216400000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>-211000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>-209600000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>-187700000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>-208100000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>-214600000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>-204400000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>-189600000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>-182400000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>-181200000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>-165800000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>-176400000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>-157900000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>-145300000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>-157300000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>-160900000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>-156400000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>-156700000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>-163500000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>-163600000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>-172900000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>-167900000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>-164400000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>-147700000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>-121300000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>-111400000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>-102500000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>-110600000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>-110300000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>-113100000.0</v>
       </c>
     </row>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>483800000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>493700000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>503000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>506800000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>506500000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>501500000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>492200000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>478400000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>462800000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>445100000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>432500000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>424300000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>417700000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>415700000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>413000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>408300000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>406500000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>402700000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>407100000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>411200000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>372900000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>331400000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>283000000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>240200000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>237400000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>240300000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>242300000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>243900000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>248200000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>250900000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>257200000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>256100000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>254300000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>248200000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>239500000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>235400000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>231300000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>235800000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>229100000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>224800000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>1472200000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1430000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>1431000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>1362600000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>1317600000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>1260000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>1200700000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>1205600000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>1237000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>1230300000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>1369200000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>1464100000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>1496900000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>1588400000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>1536900000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>1537200000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>1517300000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>1506700000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>1518200000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>1466100000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>1315200000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>1074100000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>955900000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>868900000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>931800000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>951200000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>983800000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>995400000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>977400000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>916500000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>837000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>864600000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>861200000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>852600000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>870600000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>824200000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>784900000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>776700000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>799700000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>775600000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>212900000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>228000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>225000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>189300000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>150500000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>125500000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>104900000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>110600000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>146500000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>169800000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>81100000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>193800000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>258500000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>383500000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>570200000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>568900000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>566700000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>566500000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>592800000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>574900000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>524500000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>433800000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>372900000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>342700000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>353800000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>361700000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>371400000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>371800000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>367800000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>337900000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>305100000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>314100000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>310400000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>306300000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>309000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>288900000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>270900000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>263900000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>275400000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>268800000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>1259100100.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>1201400100.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>1206000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>1173200000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>1166900000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>1134700000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>1095800000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>1095000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>1090500000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>1060500000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>1288100000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>1270300000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>1238400000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>1204900000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>966700000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>968300000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>950600000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>940200000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>925400000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>891200000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>790700000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>640300000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>578000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>589500000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>612400000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>623600000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>609600000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>578600000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>531900000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>550500000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>550800000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>546300000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>561600100.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>535300100.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>514000100.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>512800100.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>524300000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>506800000.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>1258100000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>1201000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>1206000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>1173300000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>1167000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>1134100000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>1095100000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>1094000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>1089300000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>1059300000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>1286899900.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>1269099900.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>1237199900.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>1203699900.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>965500000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>967100000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>949400000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>923900000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>889400000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>788900000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>638500000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>580600000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>524400000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>576500000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>588300000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>611200000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>622400000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>608400000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>577400000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>531900000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>550500000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>550800000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>546300000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>563500000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>537200000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>527400000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>536100000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>518500000.0</v>
       </c>
     </row>
@@ -1807,121 +1849,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>3.79</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>3.69</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>3.59</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>3.47</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>3.47</v>
       </c>
       <c r="I14" s="0" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>3.45</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>3.36</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>4.08</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>4.02</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>3.92</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>3.81</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>3.06</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>3.07</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>3.01</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>2.98</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>2.93</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>2.82</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>2.35</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>2.56</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>2.33</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>2.4</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>2.4</v>
       </c>
       <c r="AH14" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI14" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>2.28</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>2.22</v>
       </c>
     </row>
@@ -1931,121 +1978,126 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>0.3546</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>0.2709</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.368</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>0.4615</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>0.5335</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>0.6289</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>0.6254</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.6222</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>0.6226</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>0.629</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>0.6272</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>0.626</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.6309</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.6333</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>0.6344</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>0.6374</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>0.6457</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>0.6487</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>0.6432</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>0.6339</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>0.622</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>0.6076</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>0.5908</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>0.5814</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>0.5479</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>0.5495</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>0.5527</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>0.5553</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>0.5957</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>0.6009</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>0.6017</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>0.6088</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>0.6128</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>0.6089</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>0.6035</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>0.5908</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>0.5769</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>0.5745</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>0.5707</v>
       </c>
     </row>
@@ -2055,121 +2107,126 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.2356</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.2341</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.2273</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.2226</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.2035</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.1905</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.1886</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.1887</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.1912</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.2071</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.2184</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.2236</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.2322</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.2309</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.2302</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.2271</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.227</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.2311</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.2243</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.22</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.211</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.2187</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.2322</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.2225</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.2303</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.2318</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.231</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.239</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.2289</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.2348</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.2368</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.2356</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.2313</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.2175</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.2041</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.1978</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.2039</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.2027</v>
       </c>
     </row>
@@ -2179,121 +2236,126 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.1975</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.1972</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.1889</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.1816</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.1675</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.1569</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.1568</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.1592</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.1602</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.1788</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.1908</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.1962</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.2077</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.2034</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.202</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.2001</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.2016</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.2063</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.1996</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.1953</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.1812</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.1803</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.1874</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.1987</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.1904</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.1987</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.2003</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.1979</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2028</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.1897</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.1966</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.1989</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.2008</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.203</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.1916</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.1805</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.1731</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.1792</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.1769</v>
       </c>
     </row>
@@ -2303,121 +2365,126 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.1658</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.1662</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.1626</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.1609</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.1507</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.1431</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.1423</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.1402</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.1379</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.1681</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.1654</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.1621</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.1574</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.1278</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.1271</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.1252</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.1257</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.1256</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.1211</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.1172</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.1077</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.1095</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.1131</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.1229</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.1177</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.1235</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.1252</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.1232</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.1278</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.1206</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.1252</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.1272</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.1287</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.1314</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.1249</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.1213</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.1173</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.1201</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.1183</v>
       </c>
     </row>
@@ -2427,121 +2494,126 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>-0.0059</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.0088</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>-0.0012</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-0.0148</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.0113</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.0227</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.0218</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.0337</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.0429</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.0232</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.0286</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.0248</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.0156</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.0773</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.0759</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.1118</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.1133</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.0637</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.0646</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.0391</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.0095</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.0425</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.0799</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.0765</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.0876</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.0967</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.1109</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.1151</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.1127</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.1163</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.1262</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.1095</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.112</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.1085</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.0369</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.0249</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.0455</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.0365</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.0714</v>
       </c>
     </row>
@@ -2551,121 +2623,126 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>3337000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>2719000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>2637699900.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>2584199900.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>2464399900.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>2365900100.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>2336700100.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>2329700100.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>2314200100.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>2418799000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>2496699100.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>2519099100.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>2574699100.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>2519599100.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>2520699200.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>2486999200.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>2458899300.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>2474700400.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>2401700200.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>2149100200.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>1834000100.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>1608800200.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>1439800400.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>1509700300.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>1529100400.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>1551499900.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>1556899700.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>1542399800.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>1476099700.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>1400999900.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>1418100100.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>1404900100.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>1372000100.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>1357600100.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>1286600100.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>1230200200.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>1223700200.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>1192099900.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>1116099800.0</v>
       </c>
     </row>
@@ -2676,120 +2753,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>1708799800.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>1706100100.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>1698700600.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>1639400500.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>1615200600.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>1531400400.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>1458100200.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>1449900300.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>1466100300.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>1468400400.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>1585599500.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>1675099500.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>1706499600.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>1776099700.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>1744999400.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>1751799500.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>1721699400.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>1696299300.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>1700600100.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>1647300000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>1481000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>1250500000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>1113800300.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>1014200400.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>1089100300.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>1112100300.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>1140200000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>1152099800.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>1140899900.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>1080099900.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>1009899900.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1032500000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>1025600000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>1000300000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>991899900.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>935599900.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>887400000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>887300000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>909999900.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>888699900.0</v>
       </c>
     </row>
@@ -2800,120 +2880,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>3.9806</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>3.7958</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>3.8092</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>3.7049</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>3.6846</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>3.5829</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>3.4594</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>3.4566</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>3.4419</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>3.3464</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>4.0644</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>4.007</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>3.9053</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>3.7986</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>3.0481</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>3.0544</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>2.9994</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>2.9669</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>2.905</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>2.7967</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>2.5779</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>2.3479</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>2.3342</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>2.3122</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>2.5422</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>2.5912</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>2.6894</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>2.735</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>2.6669</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>2.519</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>2.3077</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>2.3769</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>2.3724</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>2.3466</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>2.2998</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>2.198</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>2.18</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>2.21</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>2.13</v>
       </c>
     </row>
@@ -3103,15 +3186,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AL23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM23" s="0" t="n">
         <v>0.065</v>
       </c>
-      <c r="AM23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AN23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO23" s="0" t="n">
         <v>0.0601</v>
       </c>
     </row>
@@ -3122,120 +3210,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>3.9921</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>3.8092</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>3.8242</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>3.7202</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>3.7002</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>3.5977</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>3.4737</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>3.4709</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>3.4564</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>3.3613</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>4.0823</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>4.0257</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>3.9244</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>3.8179</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>3.0635</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>3.0685</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>3.0124</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>2.9791</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>2.9171</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>2.8086</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>2.5898</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>2.3618</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>2.3502</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>2.3303</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>2.5632</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>2.613</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>2.7127</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>2.7589</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>2.6901</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>2.5422</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>2.4012</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>2.398</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>2.3731</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>2.4453</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>2.3268</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>2.2775</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>2.2622</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>2.2973</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>2.2182</v>
       </c>
     </row>
@@ -3425,15 +3516,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AL25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM25" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="AM25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AN25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO25" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3444,120 +3540,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>3.9921</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>3.8092</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>3.8242</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>3.7202</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>3.7002</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>3.5977</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>3.4737</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>3.4709</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>3.4564</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>3.3613</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>4.0823</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>4.0257</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>3.9244</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>3.8179</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>3.0635</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>3.0685</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>3.0124</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>2.9791</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>2.9171</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>2.8086</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>2.5898</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>2.3618</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>2.3502</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>2.3303</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>2.5632</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>2.613</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>2.7127</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>2.7589</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>2.6901</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>2.5422</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>2.4012</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>2.398</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>2.3731</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>2.4319</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>2.3144</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>2.2166</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>2.25</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>2.17</v>
       </c>
     </row>
@@ -3568,120 +3667,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>1259100100.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>1201400100.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>1206000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>1173200000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1166900000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>1134700000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>1095800000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>1095000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>1090500000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>1060500000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>1288100000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>1270300000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>1238400000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>1204900000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>966700000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>968300000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>950600000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>940200000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>925400000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>891200000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>790700000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>640300000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>578000000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>589500000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>612400000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>623600000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>609600000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>578600000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>531900000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>550500000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>550800000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>546300000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>561600000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>535300000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>514000000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>512800000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>524300000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>506800000.0</v>
       </c>
     </row>
@@ -3871,15 +3973,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AL28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM28" s="0" t="n">
         <v>13600000.0</v>
       </c>
-      <c r="AM28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AN28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO28" s="0" t="n">
         <v>12900000.0</v>
       </c>
     </row>
@@ -3890,120 +3997,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>1259300000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>1202000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>1206000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>1173300000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1167100000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>1134500000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>1095800000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>1095000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>1090500000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>1060500000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>1288100100.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>1270300100.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>1238400100.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>1204900100.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>966700000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>968300000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>950600000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>940200000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>925400000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>891200000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>790700000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>640300000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>578000000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>589500000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>612400000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>623600000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>609600000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>578600000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>531900000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>550500000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>550800000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>546300000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>563500000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>537200000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>527400000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>536100000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>518500000.0</v>
       </c>
     </row>
@@ -4013,121 +4123,126 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>0.4608</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>0.3747</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>0.3656</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>0.3562</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>0.3276</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>0.3092</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>0.3039</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>0.2998</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>0.3013</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>0.3159</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>0.3255</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>0.3301</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>0.3366</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>0.3334</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>0.3312</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>0.328</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>0.3291</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>0.3363</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>0.327</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>0.3192</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>0.3095</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>0.3034</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>0.3105</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>0.3219</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>0.306</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>0.3134</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>0.3132</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>0.3123</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>0.3266</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>0.3176</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>0.3224</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>0.3244</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>0.3231</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>0.3166</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>0.2991</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>0.2829</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>0.2728</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>0.2671</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>0.2546</v>
       </c>
     </row>
@@ -4137,121 +4252,126 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.3032</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>0.3382</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.3374</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>0.3171</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>0.3118</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>0.2977</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.2892</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.2943</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>0.3184</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>0.3057</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>0.3031</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>0.2959</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>0.2718</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.2816</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>0.282</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>0.2799</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>0.2815</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>0.2638</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>0.2453</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>0.2465</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>0.2183</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>0.2336</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>0.2575</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>0.2439</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>0.2399</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>0.2457</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>0.2559</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>0.2606</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>0.2727</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>0.2792</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>0.2835</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>0.2687</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>0.2764</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>0.2701</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>0.2216</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>0.2168</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>0.2214</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>0.2205</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>0.2362</v>
       </c>
     </row>
